--- a/weinandy/Lernplan.xlsx
+++ b/weinandy/Lernplan.xlsx
@@ -5,16 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maura\Desktop\IT Management\Grundlagen des Web\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maura\Desktop\IT Management\Grundlagen des Web\Projekt-Waesche-Weinandy-Ortlepp\weinandy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1D38FB-7D84-4D40-878C-570E77BF0D81}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{299E651D-99BA-461A-B5BC-E875488718E7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10692" yWindow="564" windowWidth="8100" windowHeight="11184" xr2:uid="{27E37DDF-8F2A-4F08-AC5E-E09D12562B2C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{27E37DDF-8F2A-4F08-AC5E-E09D12562B2C}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
+    <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
+    <sheet name="Tabelle4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,14 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="100">
   <si>
     <t>Lernplan Grundlagen des Web</t>
   </si>
   <si>
-    <t>• Projektidee entwicklen</t>
-  </si>
-  <si>
     <t>Erste Abgabe (20 Punkte)</t>
   </si>
   <si>
@@ -76,9 +75,6 @@
     <t xml:space="preserve"> (NodeJs, Visual Studio Code, Git&amp;Github)</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=6hcsrjooU0w</t>
-  </si>
-  <si>
     <t>• Node JS Tutorial durcharbeiten</t>
   </si>
   <si>
@@ -94,18 +90,12 @@
     <t>• NodeJS Grundlagen verstehen</t>
   </si>
   <si>
-    <t xml:space="preserve">• Erste Aufgabenblatt machen </t>
-  </si>
-  <si>
     <t>• Dokument bei Github hochladen</t>
   </si>
   <si>
     <t>• weiter mit Github üben</t>
   </si>
   <si>
-    <t xml:space="preserve"> •</t>
-  </si>
-  <si>
     <t xml:space="preserve">Erstes Praktikum </t>
   </si>
   <si>
@@ -184,9 +174,6 @@
     <t xml:space="preserve">    Woche erledigen</t>
   </si>
   <si>
-    <t>• mit zweiten Aufgabenblatt anfangen</t>
-  </si>
-  <si>
     <t>• Erste Projektidee entwicklen</t>
   </si>
   <si>
@@ -211,15 +198,6 @@
     <t>• Ausgabe und Eingabe</t>
   </si>
   <si>
-    <t>• Domänenmodell wiederholen</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> • Besprechung Projektidee</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> • Lösung Aufgabenblatt 1</t>
-  </si>
-  <si>
     <t>• Feedbackgespräche</t>
   </si>
   <si>
@@ -242,13 +220,127 @@
   </si>
   <si>
     <t>Node JS Tutorial:</t>
+  </si>
+  <si>
+    <t>• Arrays</t>
+  </si>
+  <si>
+    <t>• Javascript Tutorial Video 11-25</t>
+  </si>
+  <si>
+    <t>• Erstes Domänenmodell entwickeln</t>
+  </si>
+  <si>
+    <t>• 2. Aufgabenblatt anfangen</t>
+  </si>
+  <si>
+    <t>• 1. Aufgabenblatt fertig</t>
+  </si>
+  <si>
+    <t>•  Domänenmodell wiederholen</t>
+  </si>
+  <si>
+    <t>• 1. Aufgabenblatt anfangen</t>
+  </si>
+  <si>
+    <t>• Javascript Tutorial Video 25-47</t>
+  </si>
+  <si>
+    <t>• Lernplan hochladen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Einführung: Open Broadcaster Software </t>
+  </si>
+  <si>
+    <t>• Lösung Aufgabenblatt 1</t>
+  </si>
+  <si>
+    <t>• REST Architektur wiederholen</t>
+  </si>
+  <si>
+    <t>• Projektidee weiter ausarbeiten</t>
+  </si>
+  <si>
+    <t>• Mit OBS üben/Alternative suchen</t>
+  </si>
+  <si>
+    <t>• Lösung Aufgabenblatt 2</t>
+  </si>
+  <si>
+    <t>• Besprechung Projektidee</t>
+  </si>
+  <si>
+    <t>• 3. Aufgabenblatt fertig</t>
+  </si>
+  <si>
+    <t>• Fragen zur ersten Abgabe</t>
+  </si>
+  <si>
+    <t>• Video erstellen</t>
+  </si>
+  <si>
+    <t>• Video abgeben</t>
+  </si>
+  <si>
+    <t>• Video in der Gruppe planen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• REST verstehen </t>
+  </si>
+  <si>
+    <t>• Lösung Aufgabenblatt 3</t>
+  </si>
+  <si>
+    <t>• NodeJS Tutorial 1-5</t>
+  </si>
+  <si>
+    <t>• NodeJS Tutorial Video 6-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> • Nachrichtenorientiertes Modell abstimmen</t>
+  </si>
+  <si>
+    <t>• Nachrichtenorientierte Architektur wiederholen</t>
+  </si>
+  <si>
+    <t>• Darstellung von Daten im Web erarbeiten :</t>
+  </si>
+  <si>
+    <t>• Lösung zur Vermeidung von Zugriffskomplexen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Motivation, Ansatz und Details der Verwendung </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Hypermedia in REST-Architekturen</t>
+  </si>
+  <si>
+    <t>• Richardson Maturity Model</t>
+  </si>
+  <si>
+    <t>• Fragen von Ilias beantworten</t>
+  </si>
+  <si>
+    <t>https://ilias.th-koeln.de/goto.php?target=wiki_wpage_24812</t>
+  </si>
+  <si>
+    <t>• Grundelemente des Social Coding a</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> • Saint-Andre Chapter 1 - Chapter 2 pp. 3 - 27  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    und Chapter 6 - Chapter 8 pp. 69 -122</t>
+  </si>
+  <si>
+    <t>• Hinweise zur mündlichen Prüfung</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,6 +390,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -305,12 +410,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -344,7 +443,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,40 +480,38 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -431,13 +534,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>290945</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>96982</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>447994</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>130370</xdr:rowOff>
@@ -465,6 +568,226 @@
         <a:xfrm>
           <a:off x="24037636" y="568037"/>
           <a:ext cx="5685013" cy="1585097"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>2781300</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>150119</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Grafik 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59744A6C-7C64-4E1A-97BD-046706A972AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21917025" y="4524375"/>
+          <a:ext cx="2638425" cy="1588394"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>48785</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>2783292</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Grafik 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECAF008B-CD31-41C3-867F-622E610DE776}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14382749" y="7573535"/>
+          <a:ext cx="2726143" cy="1608565"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>83978</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>114676</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Grafik 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E6B364F-45EC-4BFB-A8C4-9771F26B0D6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="30944978" y="3848100"/>
+          <a:ext cx="3192998" cy="2638425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>11429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>295654</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>11368</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Grafik 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D07EDD6A-AF20-4864-8CBC-C2722E81FFB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="30975300" y="6964679"/>
+          <a:ext cx="3343654" cy="1657289"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>58016</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>246115</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>177394</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Grafik 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38CCC12A-E657-407E-B287-EB41C08473E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="30965775" y="8668616"/>
+          <a:ext cx="3303640" cy="2043428"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -514,6 +837,148 @@
         <a:xfrm>
           <a:off x="45720" y="0"/>
           <a:ext cx="6881456" cy="6683319"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>404307</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>61520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Grafik 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FC4AE36-761A-4391-A5CD-A2D3DB05C30A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5159187" cy="6462320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>754857</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>130027</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Grafik 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51F8E681-C5FE-48A9-8427-3FC3A7B4D02C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5509737" cy="5616427"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>701513</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>38515</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Grafik 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AAFE23B-1A21-4165-84ED-96291F96E72E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5547360" y="0"/>
+          <a:ext cx="5456393" cy="4793395"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -822,570 +1287,745 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5F2E87F-80F4-4BF2-B04E-AB724E45BC15}">
-  <dimension ref="A1:AA63"/>
+  <dimension ref="A1:AE71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+    <sheetView topLeftCell="T21" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Y45" sqref="Y45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.21875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="43.88671875" style="3" customWidth="1"/>
     <col min="2" max="2" width="5.88671875" style="3" customWidth="1"/>
     <col min="3" max="3" width="3.44140625" style="3" customWidth="1"/>
     <col min="4" max="4" width="42.6640625" style="3" customWidth="1"/>
     <col min="5" max="5" width="5.88671875" style="3" customWidth="1"/>
     <col min="6" max="6" width="3.44140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="42" style="3" customWidth="1"/>
+    <col min="7" max="7" width="44.88671875" style="3" customWidth="1"/>
     <col min="8" max="8" width="5.88671875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="37.77734375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="5.88671875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="3.44140625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="52.6640625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="5.77734375" style="3" customWidth="1"/>
-    <col min="14" max="14" width="3.33203125" style="3" customWidth="1"/>
-    <col min="15" max="15" width="20.21875" style="3" customWidth="1"/>
-    <col min="16" max="16" width="5.88671875" style="3" customWidth="1"/>
-    <col min="17" max="17" width="3.44140625" style="3" customWidth="1"/>
-    <col min="18" max="18" width="43.5546875" style="3" customWidth="1"/>
-    <col min="19" max="19" width="5.77734375" style="3" customWidth="1"/>
-    <col min="20" max="20" width="20" style="3" customWidth="1"/>
-    <col min="21" max="21" width="5.88671875" style="3" customWidth="1"/>
-    <col min="22" max="22" width="31.33203125" style="3" customWidth="1"/>
-    <col min="23" max="16384" width="11.5546875" style="3"/>
+    <col min="9" max="9" width="3.5546875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="40.109375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="5.88671875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="3.44140625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="52.6640625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="5.77734375" style="3" customWidth="1"/>
+    <col min="15" max="15" width="3.33203125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="38.21875" style="3" customWidth="1"/>
+    <col min="17" max="17" width="5.88671875" style="3" customWidth="1"/>
+    <col min="18" max="18" width="3.44140625" style="3" customWidth="1"/>
+    <col min="19" max="19" width="43.5546875" style="3" customWidth="1"/>
+    <col min="20" max="20" width="5.77734375" style="3" customWidth="1"/>
+    <col min="21" max="21" width="3.44140625" style="3" customWidth="1"/>
+    <col min="22" max="22" width="32.5546875" style="3" customWidth="1"/>
+    <col min="23" max="23" width="5.88671875" style="3" customWidth="1"/>
+    <col min="24" max="24" width="3.33203125" style="3" customWidth="1"/>
+    <col min="25" max="25" width="31.33203125" style="3" customWidth="1"/>
+    <col min="26" max="26" width="5.77734375" style="3" customWidth="1"/>
+    <col min="27" max="16384" width="11.5546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:31" ht="23.4" x14ac:dyDescent="0.45">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="X2" s="3" t="s">
+      <c r="G1" s="6"/>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AB2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="14"/>
+    </row>
+    <row r="6" spans="1:31" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="20">
+        <v>43752</v>
+      </c>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="20">
+        <v>43759</v>
+      </c>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="20">
+        <v>43766</v>
+      </c>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="20">
+        <v>43773</v>
+      </c>
+      <c r="W6" s="18"/>
+      <c r="X6" s="18"/>
+      <c r="Y6" s="20">
+        <v>43776</v>
+      </c>
+      <c r="Z6" s="20"/>
+      <c r="AB6" s="14"/>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="D7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="G7" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="11"/>
+      <c r="J7" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K7" s="11"/>
+      <c r="M7" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="N7" s="11"/>
+      <c r="P7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q7" s="11"/>
+      <c r="S7" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB7" s="14"/>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="D8" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="E8" s="11"/>
+      <c r="G8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="11"/>
+      <c r="J8" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K8" s="11"/>
+      <c r="M8" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="N8" s="11"/>
+      <c r="P8" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q8" s="11"/>
+      <c r="S8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB8" s="14"/>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="D9" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="G9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="11"/>
+      <c r="J9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K9" s="11"/>
+      <c r="M9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="N9" s="11"/>
+      <c r="P9" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q9" s="11"/>
+      <c r="S9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="G10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="11"/>
+      <c r="M10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N10" s="11"/>
+      <c r="S10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="G11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="11"/>
+      <c r="M11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N11" s="11"/>
+      <c r="S11" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="J13" s="21" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="5" spans="1:27" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="10" t="s">
+      <c r="P13" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="V13" s="21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="J14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K14" s="17"/>
+      <c r="P14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q14" s="17"/>
+      <c r="V14" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="J15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K15" s="11"/>
+      <c r="P15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q15" s="11"/>
+      <c r="V15" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="J16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K16" s="11"/>
+      <c r="P16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q16" s="11"/>
+      <c r="V16" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="J17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K17" s="11"/>
+      <c r="P17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q17" s="11"/>
+      <c r="V17" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="J18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K18" s="11"/>
+      <c r="P18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q18" s="11"/>
+      <c r="V18" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="J19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K19" s="15"/>
+      <c r="P19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q19" s="15"/>
+    </row>
+    <row r="21" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="20">
+        <v>43780</v>
+      </c>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="17" t="s">
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="20">
+        <v>43794</v>
+      </c>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="20">
+        <v>43801</v>
+      </c>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="T22" s="18"/>
+      <c r="U22" s="18"/>
+      <c r="V22" s="20">
+        <v>43808</v>
+      </c>
+      <c r="W22" s="18"/>
+      <c r="X22" s="18"/>
+      <c r="Y22" s="20">
+        <v>43811</v>
+      </c>
+      <c r="Z22" s="20"/>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="G27" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B29" s="4"/>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B30" s="4"/>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B31" s="4"/>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B32" s="4"/>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="S33" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="S34" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D36" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q36" s="8"/>
+      <c r="R36" s="8"/>
+      <c r="S36" s="8"/>
+      <c r="T36" s="8"/>
+      <c r="U36" s="8"/>
+      <c r="V36" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="W36" s="8"/>
+      <c r="X36" s="8"/>
+      <c r="Y36" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="U5" s="14"/>
-      <c r="V5" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="X5" s="18"/>
-    </row>
-    <row r="6" spans="1:27" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8">
-        <v>43752</v>
-      </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="8">
-        <v>43759</v>
-      </c>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="8">
-        <v>43766</v>
-      </c>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="S6" s="9"/>
-      <c r="T6" s="8">
-        <v>43773</v>
-      </c>
-      <c r="U6" s="9"/>
-      <c r="V6" s="8">
-        <v>43776</v>
-      </c>
-      <c r="X6" s="18"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="15"/>
-      <c r="D7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="15"/>
-      <c r="G7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="15"/>
-      <c r="I7" s="3" t="s">
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="20">
+        <v>43815</v>
+      </c>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="20">
+        <v>43836</v>
+      </c>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="N37" s="19"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="20">
+        <v>43843</v>
+      </c>
+      <c r="Q37" s="18"/>
+      <c r="R37" s="18"/>
+      <c r="S37" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="T37" s="18"/>
+      <c r="U37" s="18"/>
+      <c r="V37" s="20">
+        <v>43850</v>
+      </c>
+      <c r="W37" s="18"/>
+      <c r="X37" s="18"/>
+      <c r="Y37" s="20">
+        <v>43853</v>
+      </c>
+      <c r="Z37" s="20"/>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="G38" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="S38" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="G39" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M39" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="S42" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A43" s="23" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B50" s="20"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20">
+        <v>43857</v>
+      </c>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="M50" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D51" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="69" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G69" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="J7" s="15"/>
-      <c r="L7" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="V7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="X7" s="18"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="15"/>
-      <c r="D8" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="15"/>
-      <c r="G8" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="I8" s="3" t="s">
+    </row>
+    <row r="71" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G71" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="J8" s="15"/>
-      <c r="L8" s="23"/>
-      <c r="R8" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="X8" s="18"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="19"/>
-      <c r="D9" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="15"/>
-      <c r="G9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="15"/>
-      <c r="G10" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="G11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="R11" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="21" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="D13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="22"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="D14" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="15"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="D15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="15"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="D16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="15"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="D17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="15"/>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="D18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E18" s="19"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="L19" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="R19" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="U21" s="11"/>
-      <c r="V21" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="8">
-        <v>43780</v>
-      </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H22" s="7"/>
-      <c r="I22" s="8">
-        <v>43794</v>
-      </c>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="8">
-        <v>43801</v>
-      </c>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="S22" s="9"/>
-      <c r="T22" s="8">
-        <v>43808</v>
-      </c>
-      <c r="U22" s="9"/>
-      <c r="V22" s="8">
-        <v>43811</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L23" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="R23" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="D25" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B29" s="4"/>
-    </row>
-    <row r="32" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D32" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="P32" s="11"/>
-      <c r="Q32" s="11"/>
-      <c r="R32" s="11"/>
-      <c r="S32" s="11"/>
-      <c r="T32" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="U32" s="11"/>
-      <c r="V32" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="8">
-        <v>43815</v>
-      </c>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H33" s="7"/>
-      <c r="I33" s="8">
-        <v>43836</v>
-      </c>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7"/>
-      <c r="O33" s="8">
-        <v>43843</v>
-      </c>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="9"/>
-      <c r="R33" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="S33" s="9"/>
-      <c r="T33" s="8">
-        <v>43850</v>
-      </c>
-      <c r="U33" s="9"/>
-      <c r="V33" s="8">
-        <v>43853</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L34" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="R34" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="G37" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="L37" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="R37" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="G38" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="L38" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="R38" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8">
-        <v>43857</v>
-      </c>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A47" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="61" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G61" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="63" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G63" s="3" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1399,7 +2039,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7EB2F74-2F02-4C77-8D8D-03DC8B180D34}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23716F02-916F-439F-8941-E7C5E09B5C48}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49EE8987-1FCF-4929-9636-E53F98D56C5E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>

--- a/weinandy/Lernplan.xlsx
+++ b/weinandy/Lernplan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maura\Desktop\IT Management\Grundlagen des Web\Projekt-Waesche-Weinandy-Ortlepp\weinandy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maura\Desktop\IT Management\Grundlagen des Web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{299E651D-99BA-461A-B5BC-E875488718E7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC008E32-9ED8-4ABE-B3B8-71A4E6099D8C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{27E37DDF-8F2A-4F08-AC5E-E09D12562B2C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{27E37DDF-8F2A-4F08-AC5E-E09D12562B2C}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="109">
   <si>
     <t>Lernplan Grundlagen des Web</t>
   </si>
@@ -210,9 +210,6 @@
     <t>• 2. Aufgabenblatt fertig</t>
   </si>
   <si>
-    <t>• 3. Aufgabenblatt anfangen</t>
-  </si>
-  <si>
     <t>• Javascript Tutorial Video 1-10</t>
   </si>
   <si>
@@ -243,9 +240,6 @@
     <t>• 1. Aufgabenblatt anfangen</t>
   </si>
   <si>
-    <t>• Javascript Tutorial Video 25-47</t>
-  </si>
-  <si>
     <t>• Lernplan hochladen</t>
   </si>
   <si>
@@ -264,9 +258,6 @@
     <t>• Mit OBS üben/Alternative suchen</t>
   </si>
   <si>
-    <t>• Lösung Aufgabenblatt 2</t>
-  </si>
-  <si>
     <t>• Besprechung Projektidee</t>
   </si>
   <si>
@@ -334,6 +325,42 @@
   </si>
   <si>
     <t>• Hinweise zur mündlichen Prüfung</t>
+  </si>
+  <si>
+    <t>• JSON</t>
+  </si>
+  <si>
+    <t>• Module</t>
+  </si>
+  <si>
+    <t>• Errors</t>
+  </si>
+  <si>
+    <t>• Asynchrone Programmierung</t>
+  </si>
+  <si>
+    <t>• Object</t>
+  </si>
+  <si>
+    <t>• this</t>
+  </si>
+  <si>
+    <t>• Arrow function</t>
+  </si>
+  <si>
+    <t>• Scope</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>• Javascript Tutorial Video 25-43</t>
+  </si>
+  <si>
+    <t>• Lösung Aufabenblatt 2</t>
+  </si>
+  <si>
+    <t>• Peering Aufgabenblatt 3</t>
   </si>
 </sst>
 </file>
@@ -404,7 +431,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -453,6 +480,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9966"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -467,7 +500,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -512,6 +545,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -519,6 +553,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF9966"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1289,8 +1328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5F2E87F-80F4-4BF2-B04E-AB724E45BC15}">
   <dimension ref="A1:AE71"/>
   <sheetViews>
-    <sheetView topLeftCell="T21" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Y45" sqref="Y45"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1310,7 +1349,7 @@
     <col min="13" max="13" width="52.6640625" style="3" customWidth="1"/>
     <col min="14" max="14" width="5.77734375" style="3" customWidth="1"/>
     <col min="15" max="15" width="3.33203125" style="3" customWidth="1"/>
-    <col min="16" max="16" width="38.21875" style="3" customWidth="1"/>
+    <col min="16" max="16" width="42.21875" style="3" customWidth="1"/>
     <col min="17" max="17" width="5.88671875" style="3" customWidth="1"/>
     <col min="18" max="18" width="3.44140625" style="3" customWidth="1"/>
     <col min="19" max="19" width="43.5546875" style="3" customWidth="1"/>
@@ -1430,27 +1469,29 @@
       </c>
       <c r="E7" s="11"/>
       <c r="G7" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H7" s="11"/>
       <c r="J7" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K7" s="11"/>
       <c r="M7" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N7" s="11"/>
       <c r="P7" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q7" s="11"/>
       <c r="S7" s="6" t="s">
-        <v>69</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="T7" s="11"/>
       <c r="V7" s="3" t="s">
-        <v>76</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="W7" s="11"/>
       <c r="Y7" s="3" t="s">
         <v>41</v>
       </c>
@@ -1470,25 +1511,27 @@
       </c>
       <c r="H8" s="11"/>
       <c r="J8" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K8" s="11"/>
       <c r="M8" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N8" s="11"/>
       <c r="P8" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="Q8" s="11"/>
       <c r="S8" s="3" t="s">
         <v>57</v>
       </c>
+      <c r="T8" s="11"/>
       <c r="V8" s="3" t="s">
-        <v>79</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="W8" s="15"/>
       <c r="Y8" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AB8" s="14"/>
     </row>
@@ -1502,34 +1545,36 @@
       </c>
       <c r="E9" s="11"/>
       <c r="G9" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H9" s="11"/>
       <c r="J9" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K9" s="11"/>
       <c r="M9" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N9" s="11"/>
       <c r="P9" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Q9" s="11"/>
       <c r="S9" s="3" t="s">
-        <v>58</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="T9" s="15"/>
       <c r="V9" s="3" t="s">
-        <v>82</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="W9" s="11"/>
       <c r="Y9" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B10" s="11"/>
       <c r="G10" s="3" t="s">
@@ -1543,9 +1588,11 @@
       <c r="S10" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="Y10" s="3" t="s">
-        <v>81</v>
-      </c>
+      <c r="T10" s="11"/>
+      <c r="V10" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="W10" s="24"/>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="G11" s="3" t="s">
@@ -1557,27 +1604,22 @@
       </c>
       <c r="N11" s="11"/>
       <c r="S11" s="3" t="s">
-        <v>75</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="T11" s="11"/>
     </row>
     <row r="12" spans="1:31" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G12" s="3" t="s">
         <v>45</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="J13" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="P13" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="S13" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="V13" s="21" t="s">
         <v>47</v>
       </c>
@@ -1587,75 +1629,56 @@
         <v>48</v>
       </c>
       <c r="K14" s="17"/>
-      <c r="P14" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q14" s="17"/>
       <c r="V14" s="3" t="s">
-        <v>62</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="W14" s="17"/>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="J15" s="3" t="s">
         <v>53</v>
       </c>
       <c r="K15" s="11"/>
-      <c r="P15" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q15" s="11"/>
       <c r="V15" s="3" t="s">
-        <v>53</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="W15" s="11"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="J16" s="3" t="s">
         <v>49</v>
       </c>
       <c r="K16" s="11"/>
-      <c r="P16" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q16" s="11"/>
       <c r="V16" s="3" t="s">
-        <v>49</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="W16" s="11"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="J17" s="3" t="s">
         <v>50</v>
       </c>
       <c r="K17" s="11"/>
-      <c r="P17" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q17" s="11"/>
       <c r="V17" s="3" t="s">
-        <v>50</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="W17" s="11"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="J18" s="3" t="s">
         <v>51</v>
       </c>
       <c r="K18" s="11"/>
-      <c r="P18" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q18" s="11"/>
       <c r="V18" s="3" t="s">
-        <v>51</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="W18" s="11"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="J19" s="3" t="s">
         <v>52</v>
       </c>
       <c r="K19" s="15"/>
-      <c r="P19" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q19" s="15"/>
     </row>
     <row r="21" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D21" s="7" t="s">
@@ -1739,27 +1762,27 @@
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D23" s="16" t="s">
         <v>54</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="M23" s="6" t="s">
         <v>13</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D24" s="16" t="s">
         <v>55</v>
@@ -1773,13 +1796,13 @@
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>56</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M25" s="3" t="s">
         <v>45</v>
@@ -1787,33 +1810,51 @@
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="G27" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B29" s="4"/>
+      <c r="D29" s="21" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B30" s="4"/>
+      <c r="D30" s="3" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B31" s="4"/>
+      <c r="D31" s="3" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B32" s="4"/>
+      <c r="D32" s="3" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D33" s="3" t="s">
+        <v>100</v>
+      </c>
       <c r="S33" s="3" t="s">
         <v>44</v>
       </c>
@@ -1905,14 +1946,14 @@
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D38" s="2"/>
       <c r="G38" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="S38" s="3" t="s">
         <v>15</v>
@@ -1920,19 +1961,19 @@
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D39" s="2"/>
       <c r="G39" s="3" t="s">
         <v>44</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>45</v>
@@ -1940,7 +1981,7 @@
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="S41" s="3" t="s">
         <v>44</v>
@@ -1948,7 +1989,7 @@
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="S42" s="3" t="s">
         <v>45</v>
@@ -1956,7 +1997,7 @@
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A43" s="23" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.3">
@@ -2005,7 +2046,7 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D51" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
@@ -2020,12 +2061,12 @@
     </row>
     <row r="69" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G69" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="71" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G71" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2037,12 +2078,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7EB2F74-2F02-4C77-8D8D-03DC8B180D34}">
-  <dimension ref="A1"/>
+  <dimension ref="L23"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="23" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L23" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2065,7 +2114,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49EE8987-1FCF-4929-9636-E53F98D56C5E}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>

--- a/weinandy/Lernplan.xlsx
+++ b/weinandy/Lernplan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maura\Desktop\IT Management\Grundlagen des Web\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maura\Desktop\IT Management\Grundlagen des Web\Projekt-Waesche-Weinandy-Ortlepp\weinandy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC008E32-9ED8-4ABE-B3B8-71A4E6099D8C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{345BFAA6-20FB-4722-9FBE-F5A0BD79B137}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{27E37DDF-8F2A-4F08-AC5E-E09D12562B2C}"/>
   </bookViews>
@@ -19,6 +19,7 @@
     <sheet name="Tabelle4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -216,9 +217,6 @@
     <t>Javascript Tutorial: https://www.youtube.com/watch?v=UeZi8a99iS0&amp;list=PLNmsVeXQZj7qOfMI2ZNk-LXUAiXKrwDIi</t>
   </si>
   <si>
-    <t>Node JS Tutorial:</t>
-  </si>
-  <si>
     <t>• Arrays</t>
   </si>
   <si>
@@ -282,12 +280,6 @@
     <t>• Lösung Aufgabenblatt 3</t>
   </si>
   <si>
-    <t>• NodeJS Tutorial 1-5</t>
-  </si>
-  <si>
-    <t>• NodeJS Tutorial Video 6-10</t>
-  </si>
-  <si>
     <t xml:space="preserve"> • Nachrichtenorientiertes Modell abstimmen</t>
   </si>
   <si>
@@ -361,6 +353,15 @@
   </si>
   <si>
     <t>• Peering Aufgabenblatt 3</t>
+  </si>
+  <si>
+    <t>Node JS Tutorial: https://www.youtube.com/watch?v=VtLxo5CmcM0&amp;list=PL8PQSQZAAE2l96dGzJFXJ7ktpzfS3Ku4B</t>
+  </si>
+  <si>
+    <t>• NodeJS Tutorial 1-4</t>
+  </si>
+  <si>
+    <t>• NodeJS Tutorial Video 5-7</t>
   </si>
 </sst>
 </file>
@@ -1328,8 +1329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5F2E87F-80F4-4BF2-B04E-AB724E45BC15}">
   <dimension ref="A1:AE71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1473,23 +1474,23 @@
       </c>
       <c r="H7" s="11"/>
       <c r="J7" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K7" s="11"/>
       <c r="M7" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N7" s="11"/>
       <c r="P7" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q7" s="11"/>
       <c r="S7" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="T7" s="11"/>
       <c r="V7" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="W7" s="11"/>
       <c r="Y7" s="3" t="s">
@@ -1511,15 +1512,15 @@
       </c>
       <c r="H8" s="11"/>
       <c r="J8" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K8" s="11"/>
       <c r="M8" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N8" s="11"/>
       <c r="P8" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q8" s="11"/>
       <c r="S8" s="3" t="s">
@@ -1527,11 +1528,11 @@
       </c>
       <c r="T8" s="11"/>
       <c r="V8" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="W8" s="15"/>
       <c r="Y8" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AB8" s="14"/>
     </row>
@@ -1545,36 +1546,36 @@
       </c>
       <c r="E9" s="11"/>
       <c r="G9" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H9" s="11"/>
       <c r="J9" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K9" s="11"/>
       <c r="M9" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N9" s="11"/>
       <c r="P9" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q9" s="11"/>
       <c r="S9" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T9" s="15"/>
       <c r="V9" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W9" s="11"/>
       <c r="Y9" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B10" s="11"/>
       <c r="G10" s="3" t="s">
@@ -1586,11 +1587,11 @@
       </c>
       <c r="N10" s="11"/>
       <c r="S10" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T10" s="11"/>
       <c r="V10" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="W10" s="24"/>
     </row>
@@ -1630,7 +1631,7 @@
       </c>
       <c r="K14" s="17"/>
       <c r="V14" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W14" s="17"/>
     </row>
@@ -1640,7 +1641,7 @@
       </c>
       <c r="K15" s="11"/>
       <c r="V15" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="W15" s="11"/>
     </row>
@@ -1650,7 +1651,7 @@
       </c>
       <c r="K16" s="11"/>
       <c r="V16" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="W16" s="11"/>
     </row>
@@ -1660,7 +1661,7 @@
       </c>
       <c r="K17" s="11"/>
       <c r="V17" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="W17" s="11"/>
     </row>
@@ -1670,7 +1671,7 @@
       </c>
       <c r="K18" s="11"/>
       <c r="V18" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="W18" s="11"/>
     </row>
@@ -1762,27 +1763,27 @@
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D23" s="16" t="s">
         <v>54</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="M23" s="6" t="s">
         <v>13</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D24" s="16" t="s">
         <v>55</v>
@@ -1796,13 +1797,13 @@
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>56</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="M25" s="3" t="s">
         <v>45</v>
@@ -1813,7 +1814,7 @@
         <v>44</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>44</v>
@@ -1836,24 +1837,24 @@
     <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B30" s="4"/>
       <c r="D30" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B31" s="4"/>
       <c r="D31" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B32" s="4"/>
       <c r="D32" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D33" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="S33" s="3" t="s">
         <v>44</v>
@@ -1946,14 +1947,14 @@
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D38" s="2"/>
       <c r="G38" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="S38" s="3" t="s">
         <v>15</v>
@@ -1961,19 +1962,19 @@
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D39" s="2"/>
       <c r="G39" s="3" t="s">
         <v>44</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>45</v>
@@ -1981,7 +1982,7 @@
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="S41" s="3" t="s">
         <v>44</v>
@@ -1989,7 +1990,7 @@
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="S42" s="3" t="s">
         <v>45</v>
@@ -1997,7 +1998,7 @@
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A43" s="23" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.3">
@@ -2046,7 +2047,7 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D51" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
@@ -2059,14 +2060,14 @@
         <v>45</v>
       </c>
     </row>
-    <row r="69" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G69" s="3" t="s">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="71" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G71" s="3" t="s">
-        <v>60</v>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2088,7 +2089,7 @@
   <sheetData>
     <row r="23" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L23" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/weinandy/Lernplan.xlsx
+++ b/weinandy/Lernplan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maura\Desktop\IT Management\Grundlagen des Web\Projekt-Waesche-Weinandy-Ortlepp\weinandy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{345BFAA6-20FB-4722-9FBE-F5A0BD79B137}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD74683-747E-48E0-9BCC-FABF03AE0BE2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{27E37DDF-8F2A-4F08-AC5E-E09D12562B2C}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="20328" windowHeight="11412" xr2:uid="{27E37DDF-8F2A-4F08-AC5E-E09D12562B2C}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="Tabelle4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -432,7 +431,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -487,6 +486,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -501,7 +506,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -547,6 +552,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1329,8 +1335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5F2E87F-80F4-4BF2-B04E-AB724E45BC15}">
   <dimension ref="A1:AE71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="I62" sqref="I62"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1496,6 +1502,7 @@
       <c r="Y7" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="Z7" s="11"/>
       <c r="AB7" s="14"/>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.3">
@@ -1534,6 +1541,7 @@
       <c r="Y8" s="3" t="s">
         <v>76</v>
       </c>
+      <c r="Z8" s="11"/>
       <c r="AB8" s="14"/>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.3">
@@ -1572,6 +1580,7 @@
       <c r="Y9" s="3" t="s">
         <v>77</v>
       </c>
+      <c r="Z9" s="11"/>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
@@ -1768,6 +1777,7 @@
       <c r="D23" s="16" t="s">
         <v>54</v>
       </c>
+      <c r="E23" s="11"/>
       <c r="G23" s="3" t="s">
         <v>108</v>
       </c>
@@ -1816,6 +1826,7 @@
       <c r="D26" s="3" t="s">
         <v>80</v>
       </c>
+      <c r="E26" s="25"/>
       <c r="G26" s="3" t="s">
         <v>44</v>
       </c>

--- a/weinandy/Lernplan.xlsx
+++ b/weinandy/Lernplan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maura\Desktop\IT Management\Grundlagen des Web\Projekt-Waesche-Weinandy-Ortlepp\weinandy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maura\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD74683-747E-48E0-9BCC-FABF03AE0BE2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F1E3AA-B255-4184-BC1A-6598BAE0B41E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="20328" windowHeight="11412" xr2:uid="{27E37DDF-8F2A-4F08-AC5E-E09D12562B2C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{27E37DDF-8F2A-4F08-AC5E-E09D12562B2C}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="125">
   <si>
     <t>Lernplan Grundlagen des Web</t>
   </si>
@@ -204,9 +204,6 @@
     <t>• Projektszenario festlegen</t>
   </si>
   <si>
-    <t>• Domänenmodell und REST-Modellierung</t>
-  </si>
-  <si>
     <t>• 2. Aufgabenblatt fertig</t>
   </si>
   <si>
@@ -279,9 +276,6 @@
     <t>• Lösung Aufgabenblatt 3</t>
   </si>
   <si>
-    <t xml:space="preserve"> • Nachrichtenorientiertes Modell abstimmen</t>
-  </si>
-  <si>
     <t>• Nachrichtenorientierte Architektur wiederholen</t>
   </si>
   <si>
@@ -361,13 +355,67 @@
   </si>
   <si>
     <t>• NodeJS Tutorial Video 5-7</t>
+  </si>
+  <si>
+    <t>• Domänenmodell überarbeiten</t>
+  </si>
+  <si>
+    <t>• erste REST Tabelle schreiben</t>
+  </si>
+  <si>
+    <t>• Video aufteilen</t>
+  </si>
+  <si>
+    <t>• Repository updaten</t>
+  </si>
+  <si>
+    <t>• Lernplan Teil II durcharbeiten</t>
+  </si>
+  <si>
+    <t>• Fragen klären</t>
+  </si>
+  <si>
+    <t>• REST besprechen</t>
+  </si>
+  <si>
+    <t>• PoC überarbeiten</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> • Anwendungslogik für Projekt überlegen</t>
+  </si>
+  <si>
+    <t>• Engültiges Domänenmodell entwerfen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Anwendungslogik ausgehend von </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Domänenmodell</t>
+  </si>
+  <si>
+    <t>• Synchrone vs. Asynchrone Architektur?</t>
+  </si>
+  <si>
+    <t>• Code im Repository nachvollziehen und überarbeiten</t>
+  </si>
+  <si>
+    <t>• Input Clean Code, Git Branches und PoC</t>
+  </si>
+  <si>
+    <t>• Erste PoC überlgeen</t>
+  </si>
+  <si>
+    <t>•PoC weiterentwickeln</t>
+  </si>
+  <si>
+    <t>• REST Eintrag im Wiki</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -430,8 +478,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="0.59999389629810485"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -492,6 +547,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -506,7 +567,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -553,6 +614,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -627,13 +692,13 @@
       <xdr:col>18</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>2781300</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>150119</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -656,8 +721,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21917025" y="4524375"/>
-          <a:ext cx="2638425" cy="1588394"/>
+          <a:off x="22231910" y="4491879"/>
+          <a:ext cx="2638425" cy="1380004"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1335,8 +1400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5F2E87F-80F4-4BF2-B04E-AB724E45BC15}">
   <dimension ref="A1:AE71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="W26" sqref="W23:W26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1476,27 +1541,27 @@
       </c>
       <c r="E7" s="11"/>
       <c r="G7" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H7" s="11"/>
       <c r="J7" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K7" s="11"/>
       <c r="M7" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N7" s="11"/>
       <c r="P7" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q7" s="11"/>
       <c r="S7" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="T7" s="11"/>
       <c r="V7" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="W7" s="11"/>
       <c r="Y7" s="3" t="s">
@@ -1519,27 +1584,27 @@
       </c>
       <c r="H8" s="11"/>
       <c r="J8" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K8" s="11"/>
       <c r="M8" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N8" s="11"/>
       <c r="P8" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q8" s="11"/>
       <c r="S8" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T8" s="11"/>
       <c r="V8" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="W8" s="15"/>
       <c r="Y8" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z8" s="11"/>
       <c r="AB8" s="14"/>
@@ -1554,37 +1619,37 @@
       </c>
       <c r="E9" s="11"/>
       <c r="G9" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H9" s="11"/>
       <c r="J9" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K9" s="11"/>
       <c r="M9" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N9" s="11"/>
       <c r="P9" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q9" s="11"/>
       <c r="S9" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T9" s="15"/>
       <c r="V9" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="W9" s="11"/>
       <c r="Y9" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Z9" s="11"/>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B10" s="11"/>
       <c r="G10" s="3" t="s">
@@ -1596,11 +1661,11 @@
       </c>
       <c r="N10" s="11"/>
       <c r="S10" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="T10" s="11"/>
       <c r="V10" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="W10" s="24"/>
     </row>
@@ -1640,7 +1705,7 @@
       </c>
       <c r="K14" s="17"/>
       <c r="V14" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W14" s="17"/>
     </row>
@@ -1650,7 +1715,7 @@
       </c>
       <c r="K15" s="11"/>
       <c r="V15" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="W15" s="11"/>
     </row>
@@ -1660,7 +1725,7 @@
       </c>
       <c r="K16" s="11"/>
       <c r="V16" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="W16" s="11"/>
     </row>
@@ -1670,7 +1735,7 @@
       </c>
       <c r="K17" s="11"/>
       <c r="V17" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="W17" s="11"/>
     </row>
@@ -1680,7 +1745,7 @@
       </c>
       <c r="K18" s="11"/>
       <c r="V18" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="W18" s="11"/>
     </row>
@@ -1772,109 +1837,212 @@
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>74</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="B23" s="15"/>
       <c r="D23" s="16" t="s">
         <v>54</v>
       </c>
       <c r="E23" s="11"/>
       <c r="G23" s="3" t="s">
-        <v>108</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="H23" s="11"/>
       <c r="J23" s="3" t="s">
-        <v>81</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="K23" s="11"/>
       <c r="M23" s="6" t="s">
         <v>13</v>
       </c>
+      <c r="N23" s="11"/>
+      <c r="P23" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q23" s="11"/>
       <c r="S23" s="3" t="s">
-        <v>83</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="T23" s="15"/>
+      <c r="V23" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="W23" s="11"/>
+      <c r="Y23" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z23" s="11"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>79</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="B24" s="15"/>
       <c r="D24" s="16" t="s">
         <v>55</v>
       </c>
+      <c r="E24" s="11"/>
       <c r="G24" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="H24" s="11"/>
+      <c r="J24" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="K24" s="15"/>
       <c r="M24" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="N24" s="11"/>
+      <c r="P24" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q24" s="11"/>
+      <c r="T24" s="15"/>
+      <c r="V24" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="W24" s="11"/>
+      <c r="Y24" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z24" s="11"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B25" s="28"/>
+      <c r="D25" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>56</v>
-      </c>
+      <c r="E25" s="26"/>
       <c r="G25" s="3" t="s">
-        <v>82</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="H25" s="15"/>
+      <c r="J25" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="K25" s="11"/>
       <c r="M25" s="3" t="s">
-        <v>45</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="N25" s="11"/>
+      <c r="P25" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q25" s="11"/>
+      <c r="T25" s="15"/>
+      <c r="V25" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="W25" s="11"/>
+      <c r="Y25" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z25" s="11"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>44</v>
       </c>
+      <c r="B26" s="28"/>
       <c r="D26" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E26" s="11"/>
+      <c r="G26" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E26" s="25"/>
-      <c r="G26" s="3" t="s">
+      <c r="H26" s="15"/>
+      <c r="M26" s="3" t="s">
         <v>44</v>
       </c>
+      <c r="N26" s="11"/>
+      <c r="P26" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="T26" s="15"/>
+      <c r="V26" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="W26" s="11"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>45</v>
       </c>
+      <c r="B27" s="28"/>
+      <c r="D27" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E27" s="25"/>
       <c r="G27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H27" s="11"/>
+      <c r="M27" s="3" t="s">
         <v>45</v>
       </c>
+      <c r="T27" s="15"/>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="G28" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" s="11"/>
+      <c r="T28" s="15"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B29" s="4"/>
       <c r="D29" s="21" t="s">
         <v>47</v>
       </c>
+      <c r="T29" s="15"/>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B30" s="4"/>
       <c r="D30" s="3" t="s">
-        <v>94</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="E30" s="29"/>
+      <c r="T30" s="15"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B31" s="4"/>
       <c r="D31" s="3" t="s">
-        <v>95</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="E31" s="27"/>
+      <c r="T31" s="15"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B32" s="4"/>
       <c r="D32" s="3" t="s">
-        <v>96</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="E32" s="27"/>
+      <c r="S32" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="T32" s="11"/>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D33" s="3" t="s">
-        <v>97</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="E33" s="27"/>
       <c r="S33" s="3" t="s">
         <v>44</v>
       </c>
+      <c r="T33" s="11"/>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="S34" s="3" t="s">
         <v>45</v>
       </c>
+      <c r="T34" s="11"/>
     </row>
     <row r="36" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D36" s="7" t="s">
@@ -1958,14 +2126,14 @@
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D38" s="2"/>
       <c r="G38" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="S38" s="3" t="s">
         <v>15</v>
@@ -1973,19 +2141,19 @@
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D39" s="2"/>
       <c r="G39" s="3" t="s">
         <v>44</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>45</v>
@@ -1993,7 +2161,7 @@
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="S41" s="3" t="s">
         <v>44</v>
@@ -2001,7 +2169,7 @@
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="S42" s="3" t="s">
         <v>45</v>
@@ -2009,7 +2177,7 @@
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A43" s="23" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.3">
@@ -2058,7 +2226,7 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D51" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
@@ -2073,12 +2241,12 @@
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2100,7 +2268,7 @@
   <sheetData>
     <row r="23" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L23" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
